--- a/shared/ojb-resources-common/src/main/resources/ssp/Disposition_Reporting/artifacts/service_model/information_model/IEPD/documentation/disposition_mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Disposition_Reporting/artifacts/service_model/information_model/IEPD/documentation/disposition_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="2040" windowWidth="26920" windowHeight="17320"/>
+    <workbookView xWindow="-28180" yWindow="740" windowWidth="26920" windowHeight="17320"/>
   </bookViews>
   <sheets>
     <sheet name="Charge Disposition" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="527">
   <si>
     <t>Submitted Date</t>
   </si>
@@ -1420,9 +1420,6 @@
     <t>/disp-doc:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseCharge/j:ChargeSentence/disp-ext:SentenceAugmentation/hi_codes_hajis:SentenceCategoryCode</t>
   </si>
   <si>
-    <t>/disp-doc:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseCharge/j:ChargeSentence/disp-ext:SentenceAugmentation/hi_codes_jims:SentenceCode</t>
-  </si>
-  <si>
     <t>/disp-doc:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseCharge/j:ChargeSentence/j:SentenceCondition/nc:ConditionDisciplinaryAction/nc:DisciplinaryActionFee/disp-ext:ObligationUnitText</t>
   </si>
   <si>
@@ -1617,6 +1614,45 @@
   </si>
   <si>
     <t>Deferral Return Date</t>
+  </si>
+  <si>
+    <t>/disp-doc:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseDefendantParty/disp-ext:StatusCodeText</t>
+  </si>
+  <si>
+    <t>/disp-doc:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseDefendantParty/disp-ext:ReasonInactiveCodeText</t>
+  </si>
+  <si>
+    <t>/disp-doc:DispositionReport/nc:Case/disp-ext:CaseAugmentation/disp-ext:CaseInitiationCategoryCodeText</t>
+  </si>
+  <si>
+    <t>/disp-doc:DispositionReport/nc:Case/disp-ext:CaseAugmentation/disp-ext:DocketCodeText</t>
+  </si>
+  <si>
+    <t>/disp-doc:DispositionReport/nc:Case/disp-ext:CaseAugmentation/disp-ext:DocketDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/disp-doc:DispositionReport/nc:Case/disp-ext:CaseAugmentation/disp-ext:DocketCategoryText</t>
+  </si>
+  <si>
+    <t>/disp-doc:DispositionReport/nc:Case/disp-ext:CaseAugmentation/disp-ext:DocketMinutesText</t>
+  </si>
+  <si>
+    <t>/disp-doc:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseCourtEvent/disp-ext:CourtEventAugmentation/disp-ext:PreviousCourtEventCodeText</t>
+  </si>
+  <si>
+    <t>/disp-doc:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseCourtEvent/disp-ext:CourtEventAugmentation/disp-ext:PreviousCourtEventDate</t>
+  </si>
+  <si>
+    <t>/disp-doc:DispositionReport/j:Charge/j:ChargeSentence/disp-ext:SentenceAugmentation/disp-ext:MethodOfServingText</t>
+  </si>
+  <si>
+    <t>/disp-doc:DispositionReport/nc:Case/j:CaseAugmentation/j:CaseCharge/j:ChargeDisposition/disp-ext:ChargeDispositionAugmentation/disp-ext:DeferralReturnDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/disp-doc:DispositionReport/j:Warrant/nc:ActivityIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/disp-doc:DispositionReport/j:Warrant/nc:ActivityDate/nc:Date</t>
   </si>
 </sst>
 </file>
@@ -2858,10 +2894,10 @@
   <dimension ref="A1:K214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="F119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E102" sqref="E102"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2869,12 +2905,12 @@
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="36" style="59" customWidth="1"/>
     <col min="3" max="3" width="59" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="53.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44.33203125" style="22" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5" style="23" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="35.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="66.5" style="23" customWidth="1"/>
+    <col min="8" max="8" width="34.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="145.33203125" style="5" customWidth="1"/>
     <col min="11" max="11" width="62.6640625" customWidth="1"/>
   </cols>
@@ -3008,7 +3044,7 @@
         <v>176</v>
       </c>
       <c r="J7" s="44" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="31" customFormat="1">
@@ -3074,7 +3110,7 @@
         <v>224</v>
       </c>
       <c r="J11" s="51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="31" customFormat="1" ht="28">
@@ -3344,36 +3380,42 @@
     <row r="26" spans="1:10" s="33" customFormat="1" ht="27" customHeight="1">
       <c r="A26" s="15"/>
       <c r="B26" s="50" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="33" customFormat="1" ht="27" customHeight="1">
       <c r="A27" s="15"/>
       <c r="B27" s="50" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="33" customFormat="1" ht="27" customHeight="1">
       <c r="A28" s="15"/>
       <c r="B28" s="50" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B29" s="41"/>
       <c r="C29" s="12"/>
@@ -3388,14 +3430,14 @@
     <row r="30" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="27"/>
       <c r="B30" s="42" t="s">
+        <v>477</v>
+      </c>
+      <c r="E30" s="52" t="s">
         <v>478</v>
-      </c>
-      <c r="E30" s="52" t="s">
-        <v>479</v>
       </c>
       <c r="F30" s="53"/>
       <c r="J30" s="53" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="31" customFormat="1">
@@ -3446,7 +3488,7 @@
         <v>173</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="31" customFormat="1" ht="28">
@@ -3463,7 +3505,7 @@
         <v>221</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="31" customFormat="1" ht="46.5" customHeight="1">
@@ -3485,46 +3527,61 @@
     <row r="36" spans="1:10" s="33" customFormat="1" ht="46.5" customHeight="1">
       <c r="A36" s="15"/>
       <c r="B36" s="33" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
+      </c>
+      <c r="J36" s="33" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="33" customFormat="1" ht="46.5" customHeight="1">
       <c r="A37" s="15"/>
       <c r="B37" s="33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>506</v>
+        <v>505</v>
+      </c>
+      <c r="J37" s="33" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="33" customFormat="1" ht="46.5" customHeight="1">
       <c r="A38" s="15"/>
       <c r="B38" s="33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
+      </c>
+      <c r="J38" s="33" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="33" customFormat="1" ht="46.5" customHeight="1">
       <c r="A39" s="15"/>
       <c r="B39" s="33" t="s">
+        <v>506</v>
+      </c>
+      <c r="E39" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="E39" s="33" t="s">
-        <v>508</v>
+      <c r="J39" s="33" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="33" customFormat="1" ht="46.5" customHeight="1">
       <c r="A40" s="15"/>
       <c r="B40" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="E40" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="E40" s="33" t="s">
-        <v>512</v>
+      <c r="J40" s="33" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="31" customFormat="1">
@@ -3572,7 +3629,7 @@
         <v>304</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J43" s="33" t="s">
         <v>426</v>
@@ -3583,13 +3640,13 @@
         <v>135</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>305</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J44" s="33" t="s">
         <v>392</v>
@@ -3598,19 +3655,25 @@
     <row r="45" spans="1:10" s="33" customFormat="1">
       <c r="A45" s="15"/>
       <c r="B45" s="33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>491</v>
+        <v>490</v>
+      </c>
+      <c r="J45" s="33" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="33" customFormat="1">
       <c r="A46" s="15"/>
       <c r="B46" s="33" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>492</v>
+        <v>491</v>
+      </c>
+      <c r="J46" s="33" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="31" customFormat="1">
@@ -4332,13 +4395,13 @@
     <row r="86" spans="1:10" s="33" customFormat="1" ht="52.5" customHeight="1">
       <c r="A86" s="15"/>
       <c r="B86" s="50" t="s">
+        <v>496</v>
+      </c>
+      <c r="E86" s="50" t="s">
         <v>497</v>
       </c>
-      <c r="E86" s="50" t="s">
-        <v>498</v>
-      </c>
       <c r="J86" s="33" t="s">
-        <v>450</v>
+        <v>523</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="43" customFormat="1" ht="33" customHeight="1">
@@ -4435,7 +4498,7 @@
         <v>256</v>
       </c>
       <c r="J92" s="44" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="31" customFormat="1" ht="36" customHeight="1">
@@ -4448,7 +4511,7 @@
       </c>
       <c r="F93" s="49"/>
       <c r="J93" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1">
@@ -4526,7 +4589,7 @@
         <v>230</v>
       </c>
       <c r="J99" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="31" customFormat="1" ht="28">
@@ -4546,7 +4609,7 @@
         <v>160</v>
       </c>
       <c r="J100" s="44" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="31" customFormat="1" ht="32.25" customHeight="1">
@@ -4564,7 +4627,7 @@
         <v>233</v>
       </c>
       <c r="J101" s="44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="33" customFormat="1" ht="27.75" customHeight="1">
@@ -4572,19 +4635,22 @@
         <v>377</v>
       </c>
       <c r="B102" s="50" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>292</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F102" s="33" t="s">
         <v>206</v>
       </c>
       <c r="G102" s="60" t="s">
         <v>148</v>
+      </c>
+      <c r="J102" s="33" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="31" customFormat="1" ht="28">
@@ -4606,7 +4672,7 @@
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
       <c r="J103" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1">
@@ -4630,7 +4696,7 @@
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
       <c r="J104" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="31" customFormat="1" ht="28">
@@ -4652,7 +4718,7 @@
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
       <c r="J105" s="19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="31" customFormat="1" ht="28">
@@ -4674,7 +4740,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
       <c r="J106" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="35" customFormat="1">
@@ -4742,7 +4808,7 @@
         <v>187</v>
       </c>
       <c r="J110" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="31" customFormat="1">
@@ -4758,7 +4824,7 @@
       </c>
       <c r="F111" s="49"/>
       <c r="J111" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="31" customFormat="1">
@@ -4774,7 +4840,7 @@
       </c>
       <c r="F112" s="49"/>
       <c r="J112" s="19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="31" customFormat="1" ht="28">
@@ -4790,7 +4856,7 @@
       </c>
       <c r="F113" s="49"/>
       <c r="J113" s="32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114" spans="1:10" s="31" customFormat="1">
@@ -4915,25 +4981,25 @@
       <c r="H120" s="10"/>
       <c r="I120" s="10"/>
       <c r="J120" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="121" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1">
       <c r="A121" s="20"/>
       <c r="B121" s="42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
       <c r="E121" s="52" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F121" s="21"/>
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
       <c r="I121" s="10"/>
       <c r="J121" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="122" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1">
@@ -4948,7 +5014,7 @@
       </c>
       <c r="F122" s="49"/>
       <c r="J122" s="32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="123" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1">
@@ -4963,7 +5029,7 @@
       </c>
       <c r="F123" s="49"/>
       <c r="J123" s="32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1">
@@ -4990,7 +5056,7 @@
       </c>
       <c r="F125" s="49"/>
       <c r="J125" s="32" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="126" spans="1:10" s="31" customFormat="1">
@@ -5021,7 +5087,7 @@
       </c>
       <c r="F127" s="49"/>
       <c r="J127" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="128" spans="1:10" s="31" customFormat="1">
@@ -5051,7 +5117,7 @@
       </c>
       <c r="F129" s="49"/>
       <c r="J129" s="32" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="130" spans="1:10" s="31" customFormat="1" ht="28">
@@ -5067,7 +5133,7 @@
       </c>
       <c r="F130" s="49"/>
       <c r="J130" s="32" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="131" spans="1:10" s="31" customFormat="1" ht="28">
@@ -5121,7 +5187,7 @@
         <v>313</v>
       </c>
       <c r="F134" s="33" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G134" s="31" t="s">
         <v>169</v>
@@ -5132,7 +5198,7 @@
     </row>
     <row r="135" spans="1:10" s="12" customFormat="1">
       <c r="A135" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B135" s="41"/>
       <c r="F135" s="13"/>
@@ -5141,19 +5207,25 @@
     <row r="136" spans="1:10" s="33" customFormat="1">
       <c r="A136" s="15"/>
       <c r="B136" s="33" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E136" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
+      </c>
+      <c r="J136" s="33" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="137" spans="1:10" s="33" customFormat="1">
       <c r="A137" s="15"/>
       <c r="B137" s="50" t="s">
+        <v>500</v>
+      </c>
+      <c r="E137" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="E137" s="33" t="s">
-        <v>502</v>
+      <c r="J137" s="33" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="138" spans="1:10" s="31" customFormat="1">
